--- a/Data_preparation/datasets/final_data/ZSCALER_INC.xlsx
+++ b/Data_preparation/datasets/final_data/ZSCALER_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,93 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>PTC</t>
   </si>
 </sst>
 </file>
@@ -739,22 +652,22 @@
         <v>42582</v>
       </c>
       <c r="D2">
-        <v>67.30164545273598</v>
+        <v>27.5</v>
       </c>
       <c r="E2">
-        <v>67.94705963134766</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="F2">
-        <v>68.20522681790243</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="G2">
-        <v>66.35835305168469</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="H2">
-        <v>61741703</v>
+        <v>158300823</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-92842000</v>
@@ -780,22 +693,22 @@
         <v>42855</v>
       </c>
       <c r="D3">
-        <v>105.2824839738816</v>
+        <v>27.5</v>
       </c>
       <c r="E3">
-        <v>100.4015350341797</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="F3">
-        <v>105.525874177026</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="G3">
-        <v>98.53335616363826</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="H3">
-        <v>931519242</v>
+        <v>158300823</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>32964000</v>
@@ -857,22 +770,22 @@
         <v>42947</v>
       </c>
       <c r="D4">
-        <v>28.84000015258789</v>
+        <v>27.5</v>
       </c>
       <c r="E4">
-        <v>26.34000015258789</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="F4">
-        <v>29.97999954223633</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="G4">
-        <v>24.48999977111816</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="H4">
-        <v>48253392</v>
+        <v>158300823</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-87978000</v>
@@ -943,22 +856,22 @@
         <v>43039</v>
       </c>
       <c r="D5">
-        <v>27.76754404304676</v>
+        <v>27.5</v>
       </c>
       <c r="E5">
-        <v>29.36128807067871</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="F5">
-        <v>29.5525363117698</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="G5">
-        <v>27.35772563911961</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="H5">
-        <v>174270076</v>
+        <v>158300823</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>39861000</v>
@@ -1020,22 +933,22 @@
         <v>43131</v>
       </c>
       <c r="D6">
-        <v>40.04395874521859</v>
+        <v>27.5</v>
       </c>
       <c r="E6">
-        <v>41.37875747680664</v>
+        <v>28.06999969482422</v>
       </c>
       <c r="F6">
-        <v>42.73034651222623</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="G6">
-        <v>35.29241164327789</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="H6">
-        <v>4757218036</v>
+        <v>158300823</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-71569000</v>
@@ -1225,22 +1138,22 @@
         <v>43312</v>
       </c>
       <c r="D8">
-        <v>27.97210020819945</v>
+        <v>35.59999847412109</v>
       </c>
       <c r="E8">
-        <v>28.09128570556641</v>
+        <v>42.79000091552734</v>
       </c>
       <c r="F8">
-        <v>28.76056376347318</v>
+        <v>48.2400016784668</v>
       </c>
       <c r="G8">
-        <v>26.88108696871215</v>
+        <v>35.19100189208984</v>
       </c>
       <c r="H8">
-        <v>174270076</v>
+        <v>158300823</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4223313354</v>
@@ -1338,22 +1251,22 @@
         <v>43404</v>
       </c>
       <c r="D9">
-        <v>193.5399932861328</v>
+        <v>36.29999923706055</v>
       </c>
       <c r="E9">
-        <v>198.6300048828125</v>
+        <v>39.2599983215332</v>
       </c>
       <c r="F9">
-        <v>201.3699951171875</v>
+        <v>42.47999954223633</v>
       </c>
       <c r="G9">
-        <v>174.6600036621094</v>
+        <v>30.71999931335449</v>
       </c>
       <c r="H9">
-        <v>24003656</v>
+        <v>158300823</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>4346566960</v>
@@ -1451,22 +1364,22 @@
         <v>43496</v>
       </c>
       <c r="D10">
-        <v>159.5487626816853</v>
+        <v>48.04000091552734</v>
       </c>
       <c r="E10">
-        <v>173.8226776123047</v>
+        <v>49.68000030517578</v>
       </c>
       <c r="F10">
-        <v>175.6270923461549</v>
+        <v>51.36000061035156</v>
       </c>
       <c r="G10">
-        <v>155.512558863845</v>
+        <v>46.5099983215332</v>
       </c>
       <c r="H10">
-        <v>2319000000</v>
+        <v>158300823</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>5913238111</v>
@@ -1564,22 +1477,22 @@
         <v>43585</v>
       </c>
       <c r="D11">
-        <v>2.247999906539917</v>
+        <v>68.98000335693359</v>
       </c>
       <c r="E11">
-        <v>1.899999976158142</v>
+        <v>68.62999725341797</v>
       </c>
       <c r="F11">
-        <v>2.303999900817871</v>
+        <v>80.37999725341797</v>
       </c>
       <c r="G11">
-        <v>1.820999979972839</v>
+        <v>63.40499877929688</v>
       </c>
       <c r="H11">
-        <v>594273308</v>
+        <v>158300823</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>8480488196</v>
@@ -1677,22 +1590,22 @@
         <v>43677</v>
       </c>
       <c r="D12">
-        <v>60.4644694886448</v>
+        <v>84.83000183105469</v>
       </c>
       <c r="E12">
-        <v>59.11875152587891</v>
+        <v>68.73999786376953</v>
       </c>
       <c r="F12">
-        <v>61.39157352261505</v>
+        <v>86.41000366210938</v>
       </c>
       <c r="G12">
-        <v>56.74611594136378</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="H12">
-        <v>5817000000</v>
+        <v>158300823</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>10589530673</v>
@@ -1790,22 +1703,22 @@
         <v>43769</v>
       </c>
       <c r="D13">
-        <v>2.049999952316284</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>2.130000114440918</v>
+        <v>52.13000106811523</v>
       </c>
       <c r="F13">
-        <v>2.249000072479248</v>
+        <v>52.68000030517578</v>
       </c>
       <c r="G13">
-        <v>2.000999927520752</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="H13">
-        <v>594273308</v>
+        <v>158300823</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>5605467645</v>
@@ -1906,22 +1819,22 @@
         <v>43861</v>
       </c>
       <c r="D14">
-        <v>23.6926327642264</v>
+        <v>56.56000137329102</v>
       </c>
       <c r="E14">
-        <v>20.75907325744629</v>
+        <v>51.9900016784668</v>
       </c>
       <c r="F14">
-        <v>25.38844422011294</v>
+        <v>66.5</v>
       </c>
       <c r="G14">
-        <v>19.00478605726309</v>
+        <v>48.04000091552734</v>
       </c>
       <c r="H14">
-        <v>862100000</v>
+        <v>158300823</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>7177133539</v>
@@ -2022,22 +1935,22 @@
         <v>43951</v>
       </c>
       <c r="D15">
-        <v>29.1299991607666</v>
+        <v>66.23000335693359</v>
       </c>
       <c r="E15">
-        <v>36.31999969482422</v>
+        <v>98.08999633789062</v>
       </c>
       <c r="F15">
-        <v>36.45000076293945</v>
+        <v>98.37999725341795</v>
       </c>
       <c r="G15">
-        <v>26.57999992370605</v>
+        <v>65.51000213623047</v>
       </c>
       <c r="H15">
-        <v>2085418676</v>
+        <v>158300823</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>8676903785</v>
@@ -2138,22 +2051,22 @@
         <v>44043</v>
       </c>
       <c r="D16">
-        <v>49.18523125628565</v>
+        <v>131.0500030517578</v>
       </c>
       <c r="E16">
-        <v>44.42190551757812</v>
+        <v>143.3399963378906</v>
       </c>
       <c r="F16">
-        <v>50.24917073284447</v>
+        <v>146.9299926757812</v>
       </c>
       <c r="G16">
-        <v>41.23985008431981</v>
+        <v>116.879997253418</v>
       </c>
       <c r="H16">
-        <v>1122466035</v>
+        <v>158300823</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>16947794373</v>
@@ -2254,22 +2167,22 @@
         <v>44135</v>
       </c>
       <c r="D17">
-        <v>478.8699951171875</v>
+        <v>136.75</v>
       </c>
       <c r="E17">
-        <v>490.7000122070313</v>
+        <v>155.75</v>
       </c>
       <c r="F17">
-        <v>518.72998046875</v>
+        <v>155.75</v>
       </c>
       <c r="G17">
-        <v>463.4100036621094</v>
+        <v>120.3399963378906</v>
       </c>
       <c r="H17">
-        <v>424926346</v>
+        <v>158300823</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>18042034162</v>
@@ -2370,22 +2283,22 @@
         <v>44227</v>
       </c>
       <c r="D18">
-        <v>239.3500061035156</v>
+        <v>202.5200042724609</v>
       </c>
       <c r="E18">
-        <v>283.4599914550781</v>
+        <v>205.0299987792969</v>
       </c>
       <c r="F18">
-        <v>354.8200073242188</v>
+        <v>230.8809967041016</v>
       </c>
       <c r="G18">
-        <v>235.8800048828125</v>
+        <v>190.6000061035156</v>
       </c>
       <c r="H18">
-        <v>278228356</v>
+        <v>158300823</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>26798114442</v>
@@ -2486,22 +2399,22 @@
         <v>44316</v>
       </c>
       <c r="D19">
-        <v>55.13000106811523</v>
+        <v>186.6000061035156</v>
       </c>
       <c r="E19">
-        <v>54.95000076293945</v>
+        <v>194.1999969482422</v>
       </c>
       <c r="F19">
-        <v>56.47000122070312</v>
+        <v>199.7700042724609</v>
       </c>
       <c r="G19">
-        <v>47.61999893188477</v>
+        <v>157.0299987792969</v>
       </c>
       <c r="H19">
-        <v>150594095</v>
+        <v>158300823</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>25507825320</v>
@@ -2602,22 +2515,22 @@
         <v>44408</v>
       </c>
       <c r="D20">
-        <v>82.94634035907019</v>
+        <v>237</v>
       </c>
       <c r="E20">
-        <v>84.26999664306641</v>
+        <v>278.3399963378906</v>
       </c>
       <c r="F20">
-        <v>86.77550126072052</v>
+        <v>279.2900085449219</v>
       </c>
       <c r="G20">
-        <v>82.34123106917598</v>
+        <v>229.5</v>
       </c>
       <c r="H20">
-        <v>2850792605</v>
+        <v>158300823</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>32316608124</v>
@@ -2718,22 +2631,22 @@
         <v>44500</v>
       </c>
       <c r="D21">
-        <v>80.87172081815871</v>
+        <v>319.4599914550781</v>
       </c>
       <c r="E21">
-        <v>78.30628967285156</v>
+        <v>346.9700012207031</v>
       </c>
       <c r="F21">
-        <v>84.50996293035827</v>
+        <v>376.1099853515625</v>
       </c>
       <c r="G21">
-        <v>78.21299557369527</v>
+        <v>315.1300048828125</v>
       </c>
       <c r="H21">
-        <v>123248686</v>
+        <v>158300823</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>44237354902</v>
@@ -2834,22 +2747,22 @@
         <v>44592</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="E22">
-        <v>153.5630035400391</v>
+        <v>239.1499938964844</v>
       </c>
       <c r="F22">
-        <v>163.8345031738281</v>
+        <v>290.4700012207031</v>
       </c>
       <c r="G22">
-        <v>138.3329925537109</v>
+        <v>206</v>
       </c>
       <c r="H22">
-        <v>10664912097</v>
+        <v>158300823</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>36016400488</v>
@@ -2950,22 +2863,22 @@
         <v>44681</v>
       </c>
       <c r="D23">
-        <v>150.5399932861328</v>
+        <v>201.3099975585937</v>
       </c>
       <c r="E23">
-        <v>153.7299957275391</v>
+        <v>153.0899963378906</v>
       </c>
       <c r="F23">
-        <v>158.7100067138672</v>
+        <v>210.6600036621093</v>
       </c>
       <c r="G23">
-        <v>132.3200073242188</v>
+        <v>125.120002746582</v>
       </c>
       <c r="H23">
-        <v>272490000</v>
+        <v>158300823</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>28603641021</v>
@@ -3066,22 +2979,22 @@
         <v>44773</v>
       </c>
       <c r="D24">
-        <v>3.940000057220459</v>
+        <v>152</v>
       </c>
       <c r="E24">
-        <v>3.509999990463257</v>
+        <v>159.2400054931641</v>
       </c>
       <c r="F24">
-        <v>4.380000114440918</v>
+        <v>188.0599975585937</v>
       </c>
       <c r="G24">
-        <v>3.339999914169312</v>
+        <v>149.0800018310547</v>
       </c>
       <c r="H24">
-        <v>448228270</v>
+        <v>158300823</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>21997229487</v>
@@ -3182,22 +3095,22 @@
         <v>44865</v>
       </c>
       <c r="D25">
-        <v>83.23999786376953</v>
+        <v>159</v>
       </c>
       <c r="E25">
-        <v>75.77999877929688</v>
+        <v>133.4499969482422</v>
       </c>
       <c r="F25">
-        <v>86.87999725341797</v>
+        <v>159.5500030517578</v>
       </c>
       <c r="G25">
-        <v>66.44699859619141</v>
+        <v>114.2099990844727</v>
       </c>
       <c r="H25">
-        <v>323270704</v>
+        <v>158300823</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>22044388401</v>
@@ -3298,22 +3211,22 @@
         <v>44957</v>
       </c>
       <c r="D26">
-        <v>3.789999961853027</v>
+        <v>125.0500030517578</v>
       </c>
       <c r="E26">
-        <v>3.700000047683716</v>
+        <v>131.1499938964844</v>
       </c>
       <c r="F26">
-        <v>4.099999904632568</v>
+        <v>143.6300048828125</v>
       </c>
       <c r="G26">
-        <v>3.440000057220459</v>
+        <v>123.9100036621094</v>
       </c>
       <c r="H26">
-        <v>72969110</v>
+        <v>158300823</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>17905390104</v>
@@ -3414,22 +3327,22 @@
         <v>45046</v>
       </c>
       <c r="D27">
-        <v>80.47000122070312</v>
+        <v>89.48000335693359</v>
       </c>
       <c r="E27">
-        <v>81.30999755859375</v>
+        <v>135.4799957275391</v>
       </c>
       <c r="F27">
-        <v>87.41999816894531</v>
+        <v>137.6499938964844</v>
       </c>
       <c r="G27">
-        <v>75.16000366210938</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="H27">
-        <v>136895573</v>
+        <v>158300823</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>13075320560</v>
@@ -3530,22 +3443,22 @@
         <v>45138</v>
       </c>
       <c r="D28">
-        <v>572.4199829101562</v>
+        <v>159</v>
       </c>
       <c r="E28">
-        <v>546.52001953125</v>
+        <v>156.0500030517578</v>
       </c>
       <c r="F28">
-        <v>579.1199951171875</v>
+        <v>164.2899932861328</v>
       </c>
       <c r="G28">
-        <v>477.510009765625</v>
+        <v>131.5899963378906</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>158300823</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>23398025524</v>
@@ -3646,22 +3559,22 @@
         <v>45230</v>
       </c>
       <c r="D29">
-        <v>204.0399932861328</v>
+        <v>159.6000061035156</v>
       </c>
       <c r="E29">
-        <v>240.0800018310547</v>
+        <v>197.5299987792969</v>
       </c>
       <c r="F29">
-        <v>252.75</v>
+        <v>207.781005859375</v>
       </c>
       <c r="G29">
-        <v>197.8500061035156</v>
+        <v>152.6000061035156</v>
       </c>
       <c r="H29">
-        <v>3325150886</v>
+        <v>158300823</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>23354212587</v>
@@ -3762,22 +3675,22 @@
         <v>45322</v>
       </c>
       <c r="D30">
-        <v>354.4882078035527</v>
+        <v>236.6100006103516</v>
       </c>
       <c r="E30">
-        <v>364.9865112304687</v>
+        <v>241.9700012207031</v>
       </c>
       <c r="F30">
-        <v>370.4596485847449</v>
+        <v>259.6099853515625</v>
       </c>
       <c r="G30">
-        <v>349.5896494174895</v>
+        <v>202.4400024414062</v>
       </c>
       <c r="H30">
-        <v>622000000</v>
+        <v>158300823</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>34957742983</v>
@@ -3878,22 +3791,22 @@
         <v>45412</v>
       </c>
       <c r="D31">
-        <v>32.91999816894531</v>
+        <v>173</v>
       </c>
       <c r="E31">
-        <v>29.47999954223633</v>
+        <v>169.9600067138672</v>
       </c>
       <c r="F31">
-        <v>34.43000030517578</v>
+        <v>183.6999969482422</v>
       </c>
       <c r="G31">
-        <v>29.14999961853028</v>
+        <v>155.25</v>
       </c>
       <c r="H31">
-        <v>48253392</v>
+        <v>158300823</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>25916438369</v>
@@ -3994,22 +3907,22 @@
         <v>45504</v>
       </c>
       <c r="D32">
-        <v>65.3347813084503</v>
+        <v>178.6199951171875</v>
       </c>
       <c r="E32">
-        <v>75.98967742919922</v>
+        <v>199.979995727539</v>
       </c>
       <c r="F32">
-        <v>78.74061759069839</v>
+        <v>202.6399993896484</v>
       </c>
       <c r="G32">
-        <v>53.01535875336031</v>
+        <v>155.9700012207031</v>
       </c>
       <c r="H32">
-        <v>862100000</v>
+        <v>158300823</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>27108588753</v>
@@ -4110,22 +4023,22 @@
         <v>45596</v>
       </c>
       <c r="D33">
-        <v>171.1399993896484</v>
+        <v>181.1499938964844</v>
       </c>
       <c r="E33">
-        <v>336.75</v>
+        <v>206.5899963378907</v>
       </c>
       <c r="F33">
-        <v>344.7699890136719</v>
+        <v>217.8399963378907</v>
       </c>
       <c r="G33">
-        <v>158.3300018310547</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="H33">
-        <v>307636373</v>
+        <v>158300823</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>27568668004</v>
@@ -4226,22 +4139,22 @@
         <v>45688</v>
       </c>
       <c r="D34">
-        <v>29.5</v>
+        <v>198.8800048828125</v>
       </c>
       <c r="E34">
-        <v>23.45000076293945</v>
+        <v>196.229995727539</v>
       </c>
       <c r="F34">
-        <v>35.97999954223633</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="G34">
-        <v>22.81999969482422</v>
+        <v>189.0200042724609</v>
       </c>
       <c r="H34">
-        <v>134349704</v>
+        <v>158300823</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>31085130634</v>
@@ -4342,22 +4255,22 @@
         <v>45777</v>
       </c>
       <c r="D35">
-        <v>160.2100067138672</v>
+        <v>228.5</v>
       </c>
       <c r="E35">
-        <v>168.3200073242188</v>
+        <v>275.7000122070312</v>
       </c>
       <c r="F35">
-        <v>174.2599945068359</v>
+        <v>276.489990234375</v>
       </c>
       <c r="G35">
-        <v>151.6699981689453</v>
+        <v>226.5449981689453</v>
       </c>
       <c r="H35">
-        <v>119792704</v>
+        <v>158300823</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>34994131085</v>
@@ -4458,22 +4371,22 @@
         <v>45869</v>
       </c>
       <c r="D36">
-        <v>77.06999969482422</v>
+        <v>281.4500122070312</v>
       </c>
       <c r="E36">
-        <v>62.86999893188477</v>
+        <v>277.0499877929688</v>
       </c>
       <c r="F36">
-        <v>80.05999755859375</v>
+        <v>291.0700073242188</v>
       </c>
       <c r="G36">
-        <v>62.61999893188477</v>
+        <v>265.8599853515625</v>
       </c>
       <c r="H36">
-        <v>862100000</v>
+        <v>158300823</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>44460456096</v>
